--- a/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,9</t>
+          <t>3,2; 9,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 16,21</t>
+          <t>8,35; 16,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,67</t>
+          <t>3,99; 10,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 22,98</t>
+          <t>13,63; 22,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,96</t>
+          <t>0,37; 2,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,6</t>
+          <t>4,36; 8,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 18,43</t>
+          <t>12,11; 18,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,13</t>
+          <t>0,21; 1,1</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,77</t>
+          <t>5,82; 10,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,93</t>
+          <t>4,86; 10,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,25</t>
+          <t>2,64; 6,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,12</t>
+          <t>3,76; 8,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,71</t>
+          <t>10,97; 17,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 14,48</t>
+          <t>8,68; 14,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,16</t>
+          <t>5,62; 10,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,89</t>
+          <t>6,55; 11,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,02</t>
+          <t>9,02; 13,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,09</t>
+          <t>7,43; 11,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,64</t>
+          <t>4,51; 7,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,2</t>
+          <t>5,82; 9,13</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,37</t>
+          <t>3,34; 8,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,04</t>
+          <t>3,01; 7,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,17</t>
+          <t>5,04; 10,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,54</t>
+          <t>0,59; 3,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,92</t>
+          <t>8,18; 15,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,43</t>
+          <t>2,71; 7,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 14,87</t>
+          <t>9,63; 14,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,74</t>
+          <t>0,59; 2,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,18</t>
+          <t>6,63; 11,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,66</t>
+          <t>3,34; 6,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,77</t>
+          <t>8,08; 11,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,16</t>
+          <t>0,44; 2,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,34</t>
+          <t>8,18; 13,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,9</t>
+          <t>4,52; 9,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,83</t>
+          <t>3,01; 8,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,45</t>
+          <t>2,26; 6,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,17; 27,14</t>
+          <t>20,0; 27,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 21,84</t>
+          <t>13,76; 21,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 15,23</t>
+          <t>8,85; 14,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,99</t>
+          <t>1,62; 3,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,91; 19,19</t>
+          <t>14,96; 19,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 15,17</t>
+          <t>9,99; 15,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,54</t>
+          <t>7,05; 11,45</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 16,18</t>
+          <t>7,53; 16,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,68</t>
+          <t>2,5; 8,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,53; 20,4</t>
+          <t>10,43; 20,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,9; 21,38</t>
+          <t>11,94; 21,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 23,21</t>
+          <t>12,62; 23,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,36; 18,44</t>
+          <t>9,0; 18,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,59; 29,99</t>
+          <t>18,43; 30,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 19,85</t>
+          <t>12,26; 19,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,28; 18,33</t>
+          <t>11,19; 18,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,0</t>
+          <t>6,39; 11,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,57; 23,23</t>
+          <t>15,86; 23,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,95; 18,8</t>
+          <t>13,06; 18,75</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 12,24</t>
+          <t>5,49; 12,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,13</t>
+          <t>3,89; 9,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,2; 10,55</t>
+          <t>5,37; 10,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,22</t>
+          <t>1,52; 6,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,35</t>
+          <t>7,28; 14,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,51; 19,01</t>
+          <t>9,13; 18,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,44; 16,71</t>
+          <t>10,27; 16,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,13</t>
+          <t>0,92; 3,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,36</t>
+          <t>7,26; 12,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,57; 12,87</t>
+          <t>7,62; 13,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,65; 12,64</t>
+          <t>8,64; 12,51</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,36</t>
+          <t>2,95; 6,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,75</t>
+          <t>3,78; 7,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,41</t>
+          <t>6,02; 10,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,52; 19,12</t>
+          <t>12,44; 18,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,14</t>
+          <t>3,58; 7,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,64</t>
+          <t>6,05; 10,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 13,84</t>
+          <t>8,76; 13,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,44; 19,2</t>
+          <t>9,39; 19,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,25</t>
+          <t>3,68; 6,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,56</t>
+          <t>5,69; 8,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,25</t>
+          <t>7,86; 11,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,93</t>
+          <t>11,57; 17,98</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,04</t>
+          <t>5,27; 9,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,44; 12,95</t>
+          <t>8,41; 13,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,05</t>
+          <t>5,27; 8,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,02; 19,48</t>
+          <t>13,14; 19,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,43; 15,36</t>
+          <t>10,42; 15,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,18; 15,2</t>
+          <t>10,25; 15,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,72</t>
+          <t>7,32; 11,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,89; 25,21</t>
+          <t>19,93; 25,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,33; 11,55</t>
+          <t>8,39; 11,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,02; 13,46</t>
+          <t>9,76; 13,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,78</t>
+          <t>6,9; 9,71</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,2; 21,42</t>
+          <t>17,28; 21,45</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,9</t>
+          <t>4,39; 5,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,04</t>
+          <t>7,16; 8,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,31</t>
+          <t>6,53; 8,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,52; 12,01</t>
+          <t>9,66; 11,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,57</t>
+          <t>7,55; 9,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,15; 14,54</t>
+          <t>12,18; 14,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,65; 12,95</t>
+          <t>10,63; 12,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,75; 15,29</t>
+          <t>12,86; 15,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,53</t>
+          <t>6,24; 7,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,97; 11,51</t>
+          <t>9,98; 11,56</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,34</t>
+          <t>8,88; 10,31</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,25</t>
+          <t>11,62; 13,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,43</t>
+          <t>3,24; 9,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,35; 16,0</t>
+          <t>8,11; 16,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,43</t>
+          <t>4,08; 10,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,63; 22,86</t>
+          <t>13,67; 23,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,48</t>
+          <t>4,39; 8,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 18,15</t>
+          <t>12,06; 18,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,59</t>
+          <t>5,95; 10,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 10,05</t>
+          <t>5,06; 9,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,24</t>
+          <t>2,66; 6,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,97; 17,12</t>
+          <t>11,18; 17,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 14,53</t>
+          <t>8,58; 14,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,26</t>
+          <t>5,59; 10,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,05</t>
+          <t>9,18; 13,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,34</t>
+          <t>7,36; 11,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,46</t>
+          <t>4,53; 7,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,35</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,66</t>
+          <t>3,63; 9,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,62</t>
+          <t>3,04; 7,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,63</t>
+          <t>0,58; 3,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 15,22</t>
+          <t>8,16; 15,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,29</t>
+          <t>2,7; 7,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,78</t>
+          <t>0,57; 2,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,13</t>
+          <t>6,53; 10,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,56</t>
+          <t>3,42; 6,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,89</t>
+          <t>0,43; 3,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,18; 13,04</t>
+          <t>8,11; 13,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 9,58</t>
+          <t>4,69; 9,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,27</t>
+          <t>2,34; 6,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,0; 27,18</t>
+          <t>20,3; 27,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 21,55</t>
+          <t>13,4; 21,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,95</t>
+          <t>1,66; 3,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 19,0</t>
+          <t>14,74; 19,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 15,03</t>
+          <t>9,91; 15,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 16,7</t>
+          <t>7,27; 15,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,45</t>
+          <t>2,45; 8,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,43; 20,07</t>
+          <t>10,25; 19,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,62; 23,31</t>
+          <t>12,71; 23,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 18,91</t>
+          <t>9,13; 18,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 30,15</t>
+          <t>18,37; 29,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,19; 18,07</t>
+          <t>11,01; 17,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,87</t>
+          <t>6,6; 12,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,86; 23,13</t>
+          <t>15,5; 23,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,27</t>
+          <t>5,61; 12,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,88</t>
+          <t>3,86; 9,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,13</t>
+          <t>1,5; 5,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,28; 14,33</t>
+          <t>7,29; 14,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,13; 18,29</t>
+          <t>9,41; 18,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,26</t>
+          <t>0,9; 3,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 12,36</t>
+          <t>7,15; 12,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 13,22</t>
+          <t>7,39; 13,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,64</t>
+          <t>2,88; 6,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,73</t>
+          <t>4,06; 7,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,64</t>
+          <t>6,04; 10,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,08</t>
+          <t>3,77; 7,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,56</t>
+          <t>5,8; 10,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,76; 13,82</t>
+          <t>8,52; 13,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,21</t>
+          <t>3,65; 6,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,5</t>
+          <t>5,53; 8,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,86; 11,26</t>
+          <t>7,83; 11,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,18</t>
+          <t>5,35; 9,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,41; 13,13</t>
+          <t>8,39; 13,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,27; 8,99</t>
+          <t>5,35; 9,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,42; 15,42</t>
+          <t>10,4; 15,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,25; 15,2</t>
+          <t>10,04; 14,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,32; 11,62</t>
+          <t>7,59; 11,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,46</t>
+          <t>8,59; 11,6</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,76; 13,16</t>
+          <t>10,03; 13,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,9; 9,71</t>
+          <t>6,84; 9,69</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,91</t>
+          <t>4,4; 5,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,16; 8,99</t>
+          <t>7,13; 9,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,53; 8,42</t>
+          <t>6,51; 8,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,55; 9,54</t>
+          <t>7,62; 9,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,18; 14,56</t>
+          <t>12,04; 14,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,63; 12,84</t>
+          <t>10,68; 12,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,49</t>
+          <t>6,21; 7,43</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,98; 11,56</t>
+          <t>10,01; 11,5</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,88; 10,31</t>
+          <t>8,94; 10,32</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,22</t>
+          <t>3,32; 8,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,11; 16,15</t>
+          <t>8,62; 16,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,12</t>
+          <t>4,31; 10,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,67; 23,14</t>
+          <t>13,37; 22,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,07</t>
+          <t>0,41; 1,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,68</t>
+          <t>4,27; 8,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 18,1</t>
+          <t>11,84; 18,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,1</t>
+          <t>0,21; 1,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,97</t>
+          <t>5,63; 10,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,83</t>
+          <t>5,0; 9,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,32</t>
+          <t>2,63; 6,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,93</t>
+          <t>3,92; 9,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 17,15</t>
+          <t>11,27; 17,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,44</t>
+          <t>8,51; 14,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,26</t>
+          <t>5,37; 10,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,02</t>
+          <t>6,54; 10,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,22</t>
+          <t>9,18; 13,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,05</t>
+          <t>7,4; 11,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,67</t>
+          <t>4,58; 7,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,13</t>
+          <t>5,96; 9,2</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,31</t>
+          <t>3,62; 9,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,74</t>
+          <t>3,01; 8,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 10,22</t>
+          <t>4,94; 10,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,42</t>
+          <t>0,58; 3,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,16; 15,21</t>
+          <t>8,13; 14,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,46</t>
+          <t>2,7; 7,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,98</t>
+          <t>9,44; 14,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,6</t>
+          <t>0,6; 2,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,72</t>
+          <t>6,58; 11,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,71</t>
+          <t>3,35; 6,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 11,83</t>
+          <t>8,13; 11,77</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,15</t>
+          <t>0,29; 3,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 13,1</t>
+          <t>8,37; 13,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 9,92</t>
+          <t>4,82; 9,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,85</t>
+          <t>3,2; 8,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,5</t>
+          <t>2,44; 6,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 27,08</t>
+          <t>20,17; 27,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,4; 21,88</t>
+          <t>13,79; 21,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 14,92</t>
+          <t>8,78; 15,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,97</t>
+          <t>1,67; 3,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 19,07</t>
+          <t>14,91; 19,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 15,04</t>
+          <t>10,04; 15,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,45</t>
+          <t>7,0; 11,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 15,82</t>
+          <t>7,91; 16,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,67</t>
+          <t>2,54; 8,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,25; 19,3</t>
+          <t>10,53; 20,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,94; 21,11</t>
+          <t>11,9; 21,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,71; 23,43</t>
+          <t>12,48; 23,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,13; 18,36</t>
+          <t>9,36; 18,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 29,75</t>
+          <t>18,59; 29,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,26; 19,51</t>
+          <t>12,19; 19,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 17,96</t>
+          <t>11,28; 18,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,5</t>
+          <t>6,5; 12,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,5; 23,18</t>
+          <t>15,57; 23,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,75</t>
+          <t>12,95; 18,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,48</t>
+          <t>5,66; 12,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,56</t>
+          <t>4,09; 10,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,58</t>
+          <t>5,2; 10,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,89</t>
+          <t>1,52; 6,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,84</t>
+          <t>7,29; 14,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,41; 18,88</t>
+          <t>9,51; 19,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,27; 16,26</t>
+          <t>10,44; 16,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,22</t>
+          <t>0,92; 3,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,15; 12,06</t>
+          <t>7,17; 12,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,39; 13,0</t>
+          <t>7,57; 12,87</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,51</t>
+          <t>8,65; 12,64</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,64</t>
+          <t>2,75; 6,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,97</t>
+          <t>4,03; 7,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,54</t>
+          <t>5,89; 10,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,44; 18,93</t>
+          <t>12,52; 19,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,39</t>
+          <t>3,73; 7,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,3</t>
+          <t>5,97; 10,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,54</t>
+          <t>8,63; 13,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,39; 19,02</t>
+          <t>9,44; 19,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,22</t>
+          <t>3,71; 6,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,39</t>
+          <t>5,58; 8,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,34</t>
+          <t>7,83; 11,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,57; 17,98</t>
+          <t>11,76; 17,93</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,11</t>
+          <t>5,42; 9,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,39; 13,24</t>
+          <t>8,44; 12,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,03</t>
+          <t>5,23; 9,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,14; 19,34</t>
+          <t>13,02; 19,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,4; 15,36</t>
+          <t>10,43; 15,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,04; 14,81</t>
+          <t>10,18; 15,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,59; 11,89</t>
+          <t>7,45; 11,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,93; 25,23</t>
+          <t>19,89; 25,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,6</t>
+          <t>8,33; 11,55</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,03; 13,37</t>
+          <t>10,02; 13,46</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,69</t>
+          <t>6,79; 9,78</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,28; 21,45</t>
+          <t>17,2; 21,42</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,4; 5,91</t>
+          <t>4,37; 5,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,13; 9,08</t>
+          <t>7,17; 9,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,51; 8,38</t>
+          <t>6,47; 8,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,66; 11,84</t>
+          <t>9,52; 12,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,62; 9,39</t>
+          <t>7,6; 9,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,62</t>
+          <t>12,15; 14,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,68; 12,94</t>
+          <t>10,65; 12,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,86; 15,29</t>
+          <t>12,75; 15,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,43</t>
+          <t>6,24; 7,53</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,01; 11,5</t>
+          <t>9,97; 11,51</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,94; 10,32</t>
+          <t>8,85; 10,34</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,62; 13,39</t>
+          <t>11,61; 13,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,65; 15,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,29; 32,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,96</t>
+          <t>0,41; 1,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,6; 22,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,13</t>
+          <t>0,19; 1,05</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,12</t>
+          <t>3,8; 9,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,89</t>
+          <t>6,46; 10,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,2</t>
+          <t>5,79; 9,1</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>9,61%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,17</t>
+          <t>4,87; 10,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 14,87</t>
+          <t>9,34; 14,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,77</t>
+          <t>7,96; 11,54</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,34</t>
+          <t>7,09; 13,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,83</t>
+          <t>3,22; 8,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,17; 27,14</t>
+          <t>17,29; 25,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 15,23</t>
+          <t>5,39; 13,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,91; 19,19</t>
+          <t>12,94; 18,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,54</t>
+          <t>5,69; 10,55</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,9; 21,38</t>
+          <t>11,95; 21,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 19,85</t>
+          <t>12,33; 19,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,95; 18,8</t>
+          <t>12,92; 18,79</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>10,3%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,2; 10,55</t>
+          <t>5,08; 10,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,44; 16,71</t>
+          <t>10,5; 16,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,65; 12,64</t>
+          <t>8,52; 12,43</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>14,74%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,52; 19,12</t>
+          <t>12,76; 20,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,44; 19,2</t>
+          <t>6,77; 19,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,93</t>
+          <t>8,78; 18,05</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>17,17%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,02; 19,48</t>
+          <t>5,84; 18,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,89; 25,21</t>
+          <t>20,02; 25,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,2; 21,42</t>
+          <t>10,45; 20,8</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>11,49%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,52; 12,01</t>
+          <t>7,47; 11,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,75; 15,29</t>
+          <t>10,91; 14,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,25</t>
+          <t>9,95; 12,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,9</t>
+          <t>3,14; 9,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,61</t>
+          <t>7,58; 14,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 16,21</t>
+          <t>8,17; 16,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,49 +745,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,67</t>
+          <t>3,96; 10,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,29; 32,0</t>
+          <t>21,03; 32,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 22,98</t>
+          <t>13,78; 23,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,92</t>
+          <t>0,36; 1,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,6</t>
+          <t>4,25; 8,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 22,48</t>
+          <t>15,6; 22,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 18,43</t>
+          <t>12,1; 18,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,05</t>
+          <t>0,18; 0,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,77</t>
+          <t>5,95; 10,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,93</t>
+          <t>5,01; 9,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,25</t>
+          <t>2,65; 6,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,21</t>
+          <t>3,73; 9,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,71</t>
+          <t>11,08; 17,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 14,48</t>
+          <t>8,69; 14,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,16</t>
+          <t>5,46; 10,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,72</t>
+          <t>6,45; 10,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,02</t>
+          <t>8,95; 13,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,09</t>
+          <t>7,49; 11,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,64</t>
+          <t>4,5; 7,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,1</t>
+          <t>5,56; 8,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,37</t>
+          <t>3,48; 8,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,04</t>
+          <t>2,87; 7,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,05</t>
+          <t>4,92; 9,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,54</t>
+          <t>0,6; 3,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,92</t>
+          <t>8,16; 15,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,43</t>
+          <t>2,72; 7,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 14,75</t>
+          <t>9,51; 14,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,74</t>
+          <t>0,58; 2,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,18</t>
+          <t>6,58; 11,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,66</t>
+          <t>3,29; 6,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,54</t>
+          <t>7,97; 11,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,16</t>
+          <t>0,44; 3,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,89</t>
+          <t>6,89; 13,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,9</t>
+          <t>4,81; 9,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,88</t>
+          <t>3,23; 9,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,45</t>
+          <t>2,42; 6,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,29; 25,88</t>
+          <t>17,18; 25,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 21,84</t>
+          <t>13,71; 21,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 13,13</t>
+          <t>5,51; 13,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,99</t>
+          <t>1,69; 4,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,58</t>
+          <t>13,07; 18,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 15,17</t>
+          <t>10,19; 15,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,55</t>
+          <t>5,65; 10,35</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 16,18</t>
+          <t>7,57; 16,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,68</t>
+          <t>2,3; 8,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,53; 20,4</t>
+          <t>10,1; 19,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,95; 21,37</t>
+          <t>12,0; 21,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 23,21</t>
+          <t>12,47; 23,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,36; 18,44</t>
+          <t>9,08; 18,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,59; 29,99</t>
+          <t>17,72; 29,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,33; 19,64</t>
+          <t>12,45; 19,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,28; 18,33</t>
+          <t>11,44; 18,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,0</t>
+          <t>6,7; 12,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,57; 23,23</t>
+          <t>15,62; 23,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,92; 18,79</t>
+          <t>13,17; 18,67</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 12,24</t>
+          <t>5,28; 12,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,13</t>
+          <t>4,1; 10,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,31</t>
+          <t>5,29; 10,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,22</t>
+          <t>1,74; 5,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,35</t>
+          <t>7,36; 15,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,51; 19,01</t>
+          <t>9,11; 18,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,5; 16,7</t>
+          <t>10,38; 16,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,13</t>
+          <t>0,93; 3,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,36</t>
+          <t>7,45; 12,18</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,57; 12,87</t>
+          <t>7,65; 13,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 12,43</t>
+          <t>8,49; 12,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,36</t>
+          <t>2,87; 6,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,75</t>
+          <t>3,98; 7,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,41</t>
+          <t>6,01; 10,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,76; 20,8</t>
+          <t>13,07; 21,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,14</t>
+          <t>3,65; 7,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,64</t>
+          <t>6,08; 10,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 13,84</t>
+          <t>8,45; 13,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 19,14</t>
+          <t>7,28; 18,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,25</t>
+          <t>3,62; 6,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,56</t>
+          <t>5,58; 8,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,25</t>
+          <t>7,83; 11,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,78; 18,05</t>
+          <t>8,97; 18,07</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,04</t>
+          <t>5,3; 8,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,44; 12,95</t>
+          <t>8,42; 12,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,05</t>
+          <t>5,06; 8,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,84; 18,25</t>
+          <t>6,02; 18,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,43; 15,36</t>
+          <t>10,35; 15,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,18; 15,2</t>
+          <t>10,33; 15,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,72</t>
+          <t>7,49; 11,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,02; 25,32</t>
+          <t>19,96; 25,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,33; 11,55</t>
+          <t>8,48; 11,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,02; 13,46</t>
+          <t>9,69; 13,24</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,78</t>
+          <t>6,84; 9,71</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,45; 20,8</t>
+          <t>11,19; 20,75</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,9</t>
+          <t>4,38; 5,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,04</t>
+          <t>7,13; 9,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,31</t>
+          <t>6,49; 8,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,47; 11,11</t>
+          <t>7,57; 11,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,57</t>
+          <t>7,54; 9,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,15; 14,54</t>
+          <t>12,09; 14,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,65; 12,95</t>
+          <t>10,68; 12,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,46</t>
+          <t>10,49; 14,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,53</t>
+          <t>6,22; 7,46</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,97; 11,51</t>
+          <t>10,0; 11,51</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,34</t>
+          <t>8,91; 10,34</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>9,95; 12,48</t>
+          <t>10,13; 12,51</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15397</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>32342</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34472</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17766</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>76074</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>51757</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2758</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>33162</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>108417</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>86229</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2758</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8586; 25363</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22331; 44023</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23925; 48143</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10334; 27528</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60196; 92783</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39788; 68236</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1047; 5542</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22684; 46138</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>90639; 130523</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70383; 105675</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1066; 5521</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39645</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35674</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20643</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29985</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>70102</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>58580</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39502</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43998</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>109747</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>94254</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60145</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73984</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29344; 54103</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25278; 49593</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13301; 31407</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19354; 48389</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>55840; 87828</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45455; 75587</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28450; 55081</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33171; 55888</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>89266; 131358</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>76946; 114705</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46024; 76076</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>57395; 92356</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2659</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18494</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15749</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22325</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5729</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>38453</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15369</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41514</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8388</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>56947</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31118</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>63838</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10683</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11274; 28644</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9147; 23261</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15547; 30944</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2010; 12472</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27834; 52581</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9086; 25194</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33113; 51781</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3796; 17430</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>43794; 74746</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21426; 43303</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>52938; 78579</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37013</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25979</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16719</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14820</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>81962</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>67303</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45457</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19315</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>118976</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>93282</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>62176</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1578; 11493</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25706; 50077</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17807; 35878</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9990; 27919</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8977; 24094</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>66644; 99623</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>52970; 83980</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26127; 63057</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12304; 29600</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>99463; 138528</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>77044; 114420</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44268; 81194</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23113</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10444</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30950</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28701</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>28876</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>51422</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>32141</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>59590</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39320</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>82372</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>60842</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15393; 33525</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4891; 18059</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21334; 41153</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21450; 38153</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25894; 48213</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19937; 41130</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>38732; 64699</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>25927; 40358</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>46997; 76161</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>28953; 53198</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>67154; 100583</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>50974; 72243</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>22722</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17096</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>20198</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9107</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29942</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>36817</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>33997</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10092</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>52664</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>53913</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>54195</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4870</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>14463; 33076</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10795; 26658</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>14231; 28726</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4827; 16155</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20544; 42815</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24878; 49237</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26694; 42903</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5117; 18625</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>41197; 67361</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>41043; 72130</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>44681; 66173</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27296</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>37854</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>52093</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>101116</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>33201</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>55855</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>75459</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>116107</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>60497</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>93709</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>127552</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>217223</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17641; 39444</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>26367; 52137</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>39450; 68094</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>81565; 131338</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>23301; 46345</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>42150; 72716</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>58284; 93151</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>61842; 161078</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>45365; 78866</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>75643; 119124</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>105477; 150811</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>132129; 266289</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>52456</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>81964</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>53102</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>120351</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>99324</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>102533</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>77715</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>162296</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>151780</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>184498</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>130817</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>282647</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>39417; 66595</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>65308; 100518</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>39200; 67416</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>55929; 170474</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>81132; 119626</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>85022; 125760</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>61866; 98167</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>143253; 179809</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>129561; 176648</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>154938; 211690</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>109630; 155550</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>184181; 341702</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>166046</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>276508</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>250085</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>339395</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>286526</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>472276</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>415345</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>478268</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>452571</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>748783</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>665430</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>817663</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>143463; 192159</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>244051; 311769</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>219954; 282827</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>261632; 391794</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>254823; 319623</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>429410; 515675</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>377743; 455323</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>383620; 526372</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>413707; 496793</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>697227; 802929</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>617461; 715912</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>721084; 889857</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>